--- a/oci_tenancy/oci_automation/instance_creation_v3.0/example/CD3-template.xlsx
+++ b/oci_tenancy/oci_automation/instance_creation_v3.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Regional</t>
   </si>
@@ -68,17 +68,6 @@
     <t>type(private|public)</t>
   </si>
   <si>
-    <t>host_name</t>
-  </si>
-  <si>
-    <t>fault_domain
-(FAULT-DOMAIN-1| FAULT-DOMAIN-2|
-FAULT-DOMAIN-3)</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
     <t>OCPVQLGISAPP01_disk2</t>
   </si>
   <si>
@@ -94,18 +83,12 @@
     <t>nonprod_compartment_ocid</t>
   </si>
   <si>
-    <t>FAULT-DOMAIN-1</t>
-  </si>
-  <si>
     <t>qa-app</t>
   </si>
   <si>
     <t>10.110.13.10</t>
   </si>
   <si>
-    <t>SusePHXRyder</t>
-  </si>
-  <si>
     <t>VM.Standard2.16</t>
   </si>
   <si>
@@ -158,12 +141,6 @@
   </si>
   <si>
     <t>subnet_name</t>
-  </si>
-  <si>
-    <t>ssh_key_var</t>
-  </si>
-  <si>
-    <t>image_var_name</t>
   </si>
   <si>
     <t>dhcp_option_name</t>
@@ -213,18 +190,47 @@
     <t>configure IGW (y|n)</t>
   </si>
   <si>
-    <t>assign_public_address
-(true|false)</t>
-  </si>
-  <si>
-    <t>private_ip_address</t>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Availability domain</t>
+  </si>
+  <si>
+    <t>Fault Domain</t>
+  </si>
+  <si>
+    <t>subnet name</t>
+  </si>
+  <si>
+    <t>Pub Address</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>SSH-key</t>
+  </si>
+  <si>
+    <t>Compartment Var Name</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-3</t>
+  </si>
+  <si>
+    <t>Windows2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +242,12 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -298,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -311,6 +323,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,25 +684,25 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -696,30 +711,30 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -728,7 +743,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -775,45 +790,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -825,16 +840,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,10 +929,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -926,44 +941,44 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -976,14 +991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -991,81 +1006,83 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1073,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -1089,42 +1106,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
